--- a/public/assets/variant.xlsx
+++ b/public/assets/variant.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\tymart\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -381,7 +381,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -413,7 +413,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1235</v>
+        <v>1206</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1235</v>
+        <v>1206</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
